--- a/data/trans_orig/P19E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>66476</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51484</v>
+        <v>52164</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83635</v>
+        <v>82840</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.231138712141399</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1790097947989205</v>
+        <v>0.1813758742646925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2908009608182439</v>
+        <v>0.2880364740051753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -763,19 +763,19 @@
         <v>109240</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94283</v>
+        <v>92806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125432</v>
+        <v>127551</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.384245230097469</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3316327937669745</v>
+        <v>0.3264391379842418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4411986493343714</v>
+        <v>0.448653713178237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -784,19 +784,19 @@
         <v>175716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>153205</v>
+        <v>153853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>200013</v>
+        <v>197141</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3072496687404052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2678872655169436</v>
+        <v>0.2690203962192963</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3497340255371092</v>
+        <v>0.3447113010511418</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>94291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77012</v>
+        <v>78918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110682</v>
+        <v>110817</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3278537841086668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2677723216187829</v>
+        <v>0.2743992578046444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3848447504944444</v>
+        <v>0.3853125159703288</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -834,19 +834,19 @@
         <v>114036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96316</v>
+        <v>97758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129880</v>
+        <v>130815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4011145952661133</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3387856312053426</v>
+        <v>0.3438582726317375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4568460640788116</v>
+        <v>0.4601336097889558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>190</v>
@@ -855,19 +855,19 @@
         <v>208328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186815</v>
+        <v>186107</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>235965</v>
+        <v>231999</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3642725498989793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.326656546202754</v>
+        <v>0.3254187920967261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4125976834975233</v>
+        <v>0.4056632221512754</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>85927</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69879</v>
+        <v>70990</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103485</v>
+        <v>102061</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2987714581847124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2429712348323822</v>
+        <v>0.2468341359890948</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3598210386170385</v>
+        <v>0.3548683903669527</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -905,19 +905,19 @@
         <v>47983</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36516</v>
+        <v>36559</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60968</v>
+        <v>60775</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1687777255097504</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.128442107407793</v>
+        <v>0.1285947710803972</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2144510869733652</v>
+        <v>0.2137725382803818</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>129</v>
@@ -926,19 +926,19 @@
         <v>133911</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112988</v>
+        <v>116057</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>154779</v>
+        <v>153555</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2341501247637169</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1975651586414586</v>
+        <v>0.2029317607957903</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2706399016113997</v>
+        <v>0.2684986837878152</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>20321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13079</v>
+        <v>13474</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31016</v>
+        <v>30239</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07065789099240623</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04547768995871841</v>
+        <v>0.04685087215508662</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.107843224115393</v>
+        <v>0.1051426597998054</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -976,19 +976,19 @@
         <v>6877</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2974</v>
+        <v>2791</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14182</v>
+        <v>12892</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02419058135447359</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01045922220569378</v>
+        <v>0.009816375983358919</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04988492235327326</v>
+        <v>0.04534704897178228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -997,19 +997,19 @@
         <v>27199</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18401</v>
+        <v>18104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39585</v>
+        <v>38491</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04755847344742602</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03217564276953585</v>
+        <v>0.03165625328825284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06921636269202666</v>
+        <v>0.06730286879328728</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>20586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12021</v>
+        <v>12590</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31760</v>
+        <v>31385</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07157815457281556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0417970807734535</v>
+        <v>0.0437758187054746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1104289972913841</v>
+        <v>0.109125558889736</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1047,19 +1047,19 @@
         <v>6161</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2385</v>
+        <v>2098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12498</v>
+        <v>11867</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02167186777219371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008390556295353631</v>
+        <v>0.007379141666269601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04396035934718347</v>
+        <v>0.04174251469380447</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -1068,19 +1068,19 @@
         <v>26747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17446</v>
+        <v>16920</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39411</v>
+        <v>37561</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04676918314947263</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03050454080410612</v>
+        <v>0.02958547858419101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06891171662126709</v>
+        <v>0.06567767433610151</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>173266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150575</v>
+        <v>153547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>195226</v>
+        <v>194887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3587779261329969</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3117930316007525</v>
+        <v>0.3179469312439919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.404248956918412</v>
+        <v>0.4035473979271008</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -1193,19 +1193,19 @@
         <v>230139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>205273</v>
+        <v>207037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>252942</v>
+        <v>253738</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4544348304561106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4053346725521688</v>
+        <v>0.4088176384919588</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4994617639166987</v>
+        <v>0.5010340524088399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>380</v>
@@ -1214,19 +1214,19 @@
         <v>403405</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371325</v>
+        <v>373812</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>434673</v>
+        <v>434634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4077421977441504</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3753179917190629</v>
+        <v>0.3778318037425613</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4393463237744943</v>
+        <v>0.4393072069309085</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>139929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>120296</v>
+        <v>120940</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160185</v>
+        <v>161567</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.289748365747148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.249094830614392</v>
+        <v>0.2504282460090746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3316919333610154</v>
+        <v>0.3345524293308217</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -1264,19 +1264,19 @@
         <v>151171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130697</v>
+        <v>131270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>172480</v>
+        <v>172403</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2985032833052418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2580765209054952</v>
+        <v>0.2592080270854089</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3405806600546191</v>
+        <v>0.3404279886387619</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>274</v>
@@ -1285,19 +1285,19 @@
         <v>291100</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>261347</v>
+        <v>264177</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>323310</v>
+        <v>316596</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2942297794441641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2641567886262287</v>
+        <v>0.2670180195442229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3267867686903802</v>
+        <v>0.3200006167589559</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>115502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96947</v>
+        <v>98173</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>135789</v>
+        <v>134993</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2391680484673259</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2007452877738478</v>
+        <v>0.2032844652874378</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2811752250635451</v>
+        <v>0.2795262863833277</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>79</v>
@@ -1335,19 +1335,19 @@
         <v>86719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>70042</v>
+        <v>70094</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>105691</v>
+        <v>106280</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1712368983539833</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1383055965633009</v>
+        <v>0.138407927484475</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2086990866065835</v>
+        <v>0.209861508955659</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>189</v>
@@ -1356,19 +1356,19 @@
         <v>202222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>176577</v>
+        <v>178002</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>230951</v>
+        <v>226768</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2043958664848066</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1784754676913488</v>
+        <v>0.1799159978609358</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2334340011384556</v>
+        <v>0.2292066096623711</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>13629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7822</v>
+        <v>7759</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21683</v>
+        <v>23455</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02822191631503957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01619780088290535</v>
+        <v>0.01606661118762488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04489796213190637</v>
+        <v>0.0485666870445402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1406,19 +1406,19 @@
         <v>10989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5004</v>
+        <v>5070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21623</v>
+        <v>21045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02169964177323418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009881197890851266</v>
+        <v>0.01001128836134513</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04269688045137396</v>
+        <v>0.04155475622831448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1427,19 +1427,19 @@
         <v>24619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15242</v>
+        <v>16028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35955</v>
+        <v>37256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02488333428118314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01540539636750466</v>
+        <v>0.01620002010908556</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03634145098315458</v>
+        <v>0.0376569032583178</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>40607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29634</v>
+        <v>29372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54480</v>
+        <v>54232</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08408374333748965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06136324733486299</v>
+        <v>0.06081929028995418</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1128102232408919</v>
+        <v>0.1122977182903021</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1477,19 +1477,19 @@
         <v>27411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17552</v>
+        <v>18112</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41618</v>
+        <v>40534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05412534611143013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03465932863801383</v>
+        <v>0.03576467602187169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08217922448348949</v>
+        <v>0.08003837973264089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -1498,19 +1498,19 @@
         <v>68017</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53257</v>
+        <v>54107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86270</v>
+        <v>86382</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06874882204569577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05382922009684281</v>
+        <v>0.05468906421209608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08719744514703687</v>
+        <v>0.08731130416338319</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>172480</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>155149</v>
+        <v>154552</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189271</v>
+        <v>190021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5490285342801575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4938639422156647</v>
+        <v>0.4919638973522727</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.602477457156487</v>
+        <v>0.6048664008201217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>226</v>
@@ -1623,19 +1623,19 @@
         <v>227219</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>211226</v>
+        <v>209925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243925</v>
+        <v>245181</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6828069878689984</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6347466408363752</v>
+        <v>0.6308387723740131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7330094411520489</v>
+        <v>0.7367847152384106</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>406</v>
@@ -1644,19 +1644,19 @@
         <v>399699</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>376437</v>
+        <v>374648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>424020</v>
+        <v>424080</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6178428462540346</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.581886105826513</v>
+        <v>0.5791198458486082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6554387598671031</v>
+        <v>0.6555301974137353</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>113507</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98325</v>
+        <v>96898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131006</v>
+        <v>131067</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.36130952032131</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.312983144777203</v>
+        <v>0.3084425648020251</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4170130272703341</v>
+        <v>0.417205687449175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -1694,19 +1694,19 @@
         <v>81539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66783</v>
+        <v>66331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96844</v>
+        <v>98059</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2450298338997851</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2006872289542988</v>
+        <v>0.1993294687033693</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2910234030512892</v>
+        <v>0.2946723056758567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>200</v>
@@ -1715,19 +1715,19 @@
         <v>195046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>172691</v>
+        <v>171976</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218292</v>
+        <v>217892</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3014964009214691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2669414445235322</v>
+        <v>0.2658358315685123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3374293657740832</v>
+        <v>0.3368108510946656</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>24176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15667</v>
+        <v>15103</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34251</v>
+        <v>34000</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07695593215763225</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04987086197886312</v>
+        <v>0.04807633590374169</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1090249441843813</v>
+        <v>0.108225619900625</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -1765,7 +1765,7 @@
         <v>18949</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12245</v>
+        <v>12098</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>28132</v>
@@ -1774,10 +1774,10 @@
         <v>0.05694229645714836</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03679739655548366</v>
+        <v>0.0363542479279062</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.084537380756128</v>
+        <v>0.08453759178745769</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>46</v>
@@ -1786,19 +1786,19 @@
         <v>43125</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31618</v>
+        <v>32259</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>56423</v>
+        <v>56046</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06666111611006879</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04887480387488594</v>
+        <v>0.04986434302094453</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08721784464441462</v>
+        <v>0.08663458990377387</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>3127</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9443</v>
+        <v>10244</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009952176536540428</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002341227066964558</v>
+        <v>0.00233693064622221</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03005737403251298</v>
+        <v>0.03260864774281963</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10427</v>
+        <v>11503</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00974842856718636</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03133411849959164</v>
+        <v>0.03456780095751337</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1857,19 +1857,19 @@
         <v>6371</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15830</v>
+        <v>14352</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009847370598431241</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00364488689941864</v>
+        <v>0.003646749110673374</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0244700933910956</v>
+        <v>0.02218444201582524</v>
       </c>
     </row>
     <row r="20">
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4684</v>
+        <v>4360</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002753836704359816</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01491132634535659</v>
+        <v>0.01387839538963934</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5863</v>
+        <v>6256</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005472453206881707</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01761900665091299</v>
+        <v>0.01879974837606538</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1931,16 +1931,16 @@
         <v>863</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7206</v>
+        <v>7380</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004152266115996228</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00133425239440304</v>
+        <v>0.001333496071590252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01113933958860873</v>
+        <v>0.01140803959008205</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>109268</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89831</v>
+        <v>92840</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125850</v>
+        <v>129906</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2978165580545037</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2448403503549953</v>
+        <v>0.2530407046231987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3430118272064535</v>
+        <v>0.3540665714332469</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -2053,19 +2053,19 @@
         <v>146649</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128240</v>
+        <v>128192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166401</v>
+        <v>169246</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3806237448816418</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3328432817962148</v>
+        <v>0.3327189754766046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4318877756657914</v>
+        <v>0.4392724051888863</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>239</v>
@@ -2074,19 +2074,19 @@
         <v>255917</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>228733</v>
+        <v>225777</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>283943</v>
+        <v>281320</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.340232462671441</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3040916210262486</v>
+        <v>0.3001629528826577</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3774921684737991</v>
+        <v>0.374004868663879</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>105704</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>88972</v>
+        <v>86803</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>125028</v>
+        <v>123648</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2881043311323958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2424983365445078</v>
+        <v>0.2365868657279142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3407730904320797</v>
+        <v>0.3370113586615952</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>132</v>
@@ -2124,19 +2124,19 @@
         <v>141714</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>121330</v>
+        <v>122719</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>161364</v>
+        <v>162164</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.367814832458887</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3149085290363018</v>
+        <v>0.3185129493681177</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4188146576006862</v>
+        <v>0.4208925785498062</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>232</v>
@@ -2145,19 +2145,19 @@
         <v>247419</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>218964</v>
+        <v>222396</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>273053</v>
+        <v>277453</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.328934036267659</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2911048276535085</v>
+        <v>0.2956676705903254</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3630137203179339</v>
+        <v>0.3688638146750098</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>104202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>87715</v>
+        <v>88305</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>124405</v>
+        <v>122938</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2840107755941125</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2390720871925448</v>
+        <v>0.2406824727427204</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3390745185984363</v>
+        <v>0.3350751410276099</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>79</v>
@@ -2195,19 +2195,19 @@
         <v>86767</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>71189</v>
+        <v>69182</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>105564</v>
+        <v>105231</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2252012182815304</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1847700063806074</v>
+        <v>0.1795588651770108</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2739880819365092</v>
+        <v>0.2731238006203643</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>180</v>
@@ -2216,19 +2216,19 @@
         <v>190970</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>167954</v>
+        <v>168005</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>219380</v>
+        <v>219556</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2538870548264691</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2232888368529316</v>
+        <v>0.2233571893485377</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2916573108344176</v>
+        <v>0.2918920761835222</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>12512</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6540</v>
+        <v>7027</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20881</v>
+        <v>22693</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03410158648678754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01782585914424843</v>
+        <v>0.01915209291402149</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05691229690896878</v>
+        <v>0.0618520421645814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6575</v>
+        <v>6565</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003127871269967334</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01706561973462653</v>
+        <v>0.01704053805528725</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2287,19 +2287,19 @@
         <v>13717</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7899</v>
+        <v>7352</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23807</v>
+        <v>22626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01823607769935139</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01050083184754043</v>
+        <v>0.009773677276269079</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03165102179359818</v>
+        <v>0.03008039887630455</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>35210</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24868</v>
+        <v>24693</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48551</v>
+        <v>48236</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09596674873220044</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0677794368582333</v>
+        <v>0.06730169881773744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1323287329940248</v>
+        <v>0.1314698951319604</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2337,19 +2337,19 @@
         <v>8951</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4090</v>
+        <v>4010</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16646</v>
+        <v>17460</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02323233310797348</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01061617310896975</v>
+        <v>0.0104071569582639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04320470659833421</v>
+        <v>0.04531710335287797</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -2358,19 +2358,19 @@
         <v>44161</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31164</v>
+        <v>30931</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58251</v>
+        <v>57284</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05871036853507944</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04143123390819447</v>
+        <v>0.04112176347098666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07744290925256957</v>
+        <v>0.07615724673196994</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>53829</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41282</v>
+        <v>42193</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67879</v>
+        <v>66949</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2615543594374751</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2005868083292318</v>
+        <v>0.2050117432341254</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3298204308102248</v>
+        <v>0.3253016289223929</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -2483,19 +2483,19 @@
         <v>57062</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45758</v>
+        <v>44903</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>69647</v>
+        <v>70535</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2655333199501809</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2129321579363364</v>
+        <v>0.2089523564420426</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3240947801466696</v>
+        <v>0.328226618721974</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>112</v>
@@ -2504,19 +2504,19 @@
         <v>110892</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>93490</v>
+        <v>92908</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>128431</v>
+        <v>128250</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2635868284407213</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2222226942076816</v>
+        <v>0.2208402592485655</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3052779752612816</v>
+        <v>0.3048485572282866</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>74278</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>61263</v>
+        <v>60521</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>87441</v>
+        <v>88234</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.360913585427784</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2976714036434645</v>
+        <v>0.2940673303877655</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4248728248207853</v>
+        <v>0.4287241516750194</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>98</v>
@@ -2554,19 +2554,19 @@
         <v>95372</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>80727</v>
+        <v>81032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>109539</v>
+        <v>109802</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4438051086116871</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3756564893108185</v>
+        <v>0.377075567467077</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5097310903994388</v>
+        <v>0.510955505299864</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>173</v>
@@ -2575,19 +2575,19 @@
         <v>169650</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>150272</v>
+        <v>150560</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>190838</v>
+        <v>188711</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4032549082343739</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3571932220195917</v>
+        <v>0.3578789268239874</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4536177521381163</v>
+        <v>0.4485620157678072</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>71208</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>57855</v>
+        <v>57283</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>85056</v>
+        <v>84600</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3459951067441615</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2811146167770399</v>
+        <v>0.2783366691738786</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4132823967669855</v>
+        <v>0.411067399141815</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>54</v>
@@ -2625,19 +2625,19 @@
         <v>53480</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41139</v>
+        <v>40506</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>65871</v>
+        <v>67136</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2488627773407675</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1914369839872211</v>
+        <v>0.1884918279951959</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3065245850671949</v>
+        <v>0.3124096339193793</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>127</v>
@@ -2646,19 +2646,19 @@
         <v>124687</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>106058</v>
+        <v>106464</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>143598</v>
+        <v>142359</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2963795229515865</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2520976432019466</v>
+        <v>0.2530633483021228</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3413287648423275</v>
+        <v>0.3383849910843888</v>
       </c>
     </row>
     <row r="31">
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5824</v>
+        <v>4765</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.004667014716426153</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02829800764633879</v>
+        <v>0.02315169124649377</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2696,19 +2696,19 @@
         <v>5779</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1893</v>
+        <v>1963</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12809</v>
+        <v>13483</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02689173876362823</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008808491215977408</v>
+        <v>0.009132908809976</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0596034878229603</v>
+        <v>0.06274290343115149</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -2717,19 +2717,19 @@
         <v>6739</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2883</v>
+        <v>2796</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14818</v>
+        <v>14318</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01601949297988147</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006852180776725862</v>
+        <v>0.00664622256018366</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03522203832737038</v>
+        <v>0.03403261359104789</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>5530</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1836</v>
+        <v>1908</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12122</v>
+        <v>12646</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02686993367415315</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008921197804436769</v>
+        <v>0.009268629380907308</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05889871339679411</v>
+        <v>0.06144588302740758</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10594</v>
+        <v>10932</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01490705533373619</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04929865449070401</v>
+        <v>0.05086923006775523</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2788,19 +2788,19 @@
         <v>8733</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3767</v>
+        <v>3915</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18163</v>
+        <v>18507</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02075924739343682</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008954910046516646</v>
+        <v>0.00930610015148838</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04317221698254493</v>
+        <v>0.04399063270669329</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>26920</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18815</v>
+        <v>18314</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>39427</v>
+        <v>37649</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1026788316319526</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07176516791799976</v>
+        <v>0.06985520663575299</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1503844627823422</v>
+        <v>0.1436038876595629</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>35</v>
@@ -2913,19 +2913,19 @@
         <v>35719</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>26672</v>
+        <v>25250</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>48502</v>
+        <v>47937</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1312250771110478</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09798959186339333</v>
+        <v>0.09276639110624675</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1781882939938023</v>
+        <v>0.1761147540879105</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>61</v>
@@ -2934,19 +2934,19 @@
         <v>62639</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>47872</v>
+        <v>48674</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>77311</v>
+        <v>79003</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1172195773394549</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08958593418161619</v>
+        <v>0.09108723431782645</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1446774891654246</v>
+        <v>0.1478430901224905</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>65992</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>53137</v>
+        <v>52508</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>80784</v>
+        <v>81648</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2517108828563224</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2026769264061588</v>
+        <v>0.2002779223935365</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.308131366862269</v>
+        <v>0.3114272908435092</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>93</v>
@@ -2984,19 +2984,19 @@
         <v>93037</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>78488</v>
+        <v>78341</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>106869</v>
+        <v>108753</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3418054108492557</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2883517383357585</v>
+        <v>0.2878142928334061</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3926199534451207</v>
+        <v>0.3995432216059039</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>158</v>
@@ -3005,19 +3005,19 @@
         <v>159030</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>139317</v>
+        <v>139517</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>180903</v>
+        <v>179303</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2976027891016482</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2607130669015603</v>
+        <v>0.2610868157077723</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3385360321948033</v>
+        <v>0.3355406850571314</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>82971</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>68266</v>
+        <v>67857</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>98491</v>
+        <v>97685</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3164731624062128</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2603844502537548</v>
+        <v>0.2588225132318057</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3756682912509346</v>
+        <v>0.3725957284650195</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>82</v>
@@ -3055,19 +3055,19 @@
         <v>84915</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>71032</v>
+        <v>70995</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>100378</v>
+        <v>101100</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3119634594939563</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2609601682572664</v>
+        <v>0.2608266646603254</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3687725600209849</v>
+        <v>0.3714252879231695</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>165</v>
@@ -3076,19 +3076,19 @@
         <v>167886</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>146992</v>
+        <v>146062</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>191263</v>
+        <v>189127</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3141760321825017</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2750767317780115</v>
+        <v>0.2733361078139605</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.35792384094201</v>
+        <v>0.3539254434010887</v>
       </c>
     </row>
     <row r="37">
@@ -3108,16 +3108,16 @@
         <v>811</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8142</v>
+        <v>7602</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01021192791996993</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003092137858338079</v>
+        <v>0.003094571157294852</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0310569160959362</v>
+        <v>0.02899665265513302</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5937</v>
+        <v>5962</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.004386087283922531</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02181048551961547</v>
+        <v>0.02190421635443048</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -3147,19 +3147,19 @@
         <v>3871</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9271</v>
+        <v>8957</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.007244389954837719</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001863106987308312</v>
+        <v>0.001866757582377712</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01734896042859571</v>
+        <v>0.01676178136744024</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>83614</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>69519</v>
+        <v>69554</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>99898</v>
+        <v>100179</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3189251951855424</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2651609923370779</v>
+        <v>0.2652958065092043</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3810345871441412</v>
+        <v>0.3821087586714642</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>51</v>
@@ -3197,19 +3197,19 @@
         <v>57329</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>44811</v>
+        <v>44325</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>71962</v>
+        <v>72479</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2106199652618177</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.164629394689311</v>
+        <v>0.1628431016998933</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2643779094125559</v>
+        <v>0.2662782572949222</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>132</v>
@@ -3218,19 +3218,19 @@
         <v>140944</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>121615</v>
+        <v>122165</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>163121</v>
+        <v>164703</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2637572114215575</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2275861344639444</v>
+        <v>0.2286151406647925</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3052594193243263</v>
+        <v>0.3082202993031459</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>160405</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>137069</v>
+        <v>138637</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>183966</v>
+        <v>185992</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2619107328687493</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2238079225346585</v>
+        <v>0.2263674479433452</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3003821677863073</v>
+        <v>0.3036895924909127</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>221</v>
@@ -3343,19 +3343,19 @@
         <v>233522</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>209431</v>
+        <v>208873</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>258089</v>
+        <v>258293</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3650075079003373</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3273517954740859</v>
+        <v>0.3264799012204547</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4034071648514372</v>
+        <v>0.4037264733359196</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>360</v>
@@ -3364,19 +3364,19 @@
         <v>393927</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>359475</v>
+        <v>361576</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>429318</v>
+        <v>430360</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3145842536802443</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2870715958810697</v>
+        <v>0.2887495016909023</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3428468411863586</v>
+        <v>0.3436790089055828</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>160573</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>141419</v>
+        <v>139620</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>184175</v>
+        <v>183170</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2621856256016488</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2309109491352562</v>
+        <v>0.2279726339853108</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3007223440666359</v>
+        <v>0.2990811943358243</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>189</v>
@@ -3414,19 +3414,19 @@
         <v>202277</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>177759</v>
+        <v>179136</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>226537</v>
+        <v>226442</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3161693021033822</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2778466120510643</v>
+        <v>0.2799992121547632</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.354089680351678</v>
+        <v>0.3539413658010075</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>335</v>
@@ -3435,19 +3435,19 @@
         <v>362850</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>329709</v>
+        <v>331397</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>396176</v>
+        <v>395673</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2897666077111652</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2633008748087987</v>
+        <v>0.2646487406639555</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3163807769532395</v>
+        <v>0.3159789466622094</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>221587</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>194632</v>
+        <v>197679</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>247890</v>
+        <v>246971</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3618089555998239</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3177968046344434</v>
+        <v>0.3227730077119593</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4047573228575622</v>
+        <v>0.4032574193885525</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>154</v>
@@ -3485,19 +3485,19 @@
         <v>164129</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>143060</v>
+        <v>144208</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>187954</v>
+        <v>187867</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2565421490211</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.223610537985636</v>
+        <v>0.2254055365563372</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.293782665873535</v>
+        <v>0.2936469394464414</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>346</v>
@@ -3506,19 +3506,19 @@
         <v>385715</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>354258</v>
+        <v>349856</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>420060</v>
+        <v>418797</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3080267366566497</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.282905659176484</v>
+        <v>0.2793895677169547</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3354535321248093</v>
+        <v>0.3344448714092964</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>35296</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>23440</v>
+        <v>24969</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>50012</v>
+        <v>49321</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05763164032021612</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03827387315688215</v>
+        <v>0.04076940327674208</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08166065048279954</v>
+        <v>0.08053230685528374</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>23</v>
@@ -3556,19 +3556,19 @@
         <v>26438</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>17269</v>
+        <v>17041</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>39328</v>
+        <v>38788</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04132352939391905</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02699257316760819</v>
+        <v>0.02663531146441643</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0614721005711804</v>
+        <v>0.06062775828508962</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>54</v>
@@ -3577,19 +3577,19 @@
         <v>61734</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>47349</v>
+        <v>47927</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>79761</v>
+        <v>81661</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04929960840157186</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03781190287764841</v>
+        <v>0.03827390396590932</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06369626783830251</v>
+        <v>0.06521328999044269</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>34580</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>23650</v>
+        <v>24464</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>48377</v>
+        <v>50884</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05646304560956185</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03861546170457431</v>
+        <v>0.03994526694987292</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07899094422106255</v>
+        <v>0.08308418551944774</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>13</v>
@@ -3627,19 +3627,19 @@
         <v>13408</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7122</v>
+        <v>7446</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>22909</v>
+        <v>22274</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02095751158126158</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01113200823433368</v>
+        <v>0.0116385358908145</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03580776345696075</v>
+        <v>0.03481502790146813</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>43</v>
@@ -3648,19 +3648,19 @@
         <v>47988</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>35803</v>
+        <v>34690</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>63813</v>
+        <v>64363</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03832279355036887</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02859157277506859</v>
+        <v>0.0277025594620028</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05095981341940267</v>
+        <v>0.05139903149431023</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>397176</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>370548</v>
+        <v>366766</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>426482</v>
+        <v>425340</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.5185331378738908</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.4837686134551471</v>
+        <v>0.4788313385569233</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.5567931389571814</v>
+        <v>0.5553025680326583</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>417</v>
@@ -3773,19 +3773,19 @@
         <v>458610</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>426703</v>
+        <v>428370</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>486826</v>
+        <v>486669</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5592862865427879</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5203748494147016</v>
+        <v>0.5224081011304</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5936956138614858</v>
+        <v>0.593505102428843</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>796</v>
@@ -3794,19 +3794,19 @@
         <v>855786</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>816638</v>
+        <v>814713</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>894612</v>
+        <v>895768</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.5396039123770416</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5149196666596422</v>
+        <v>0.5137053463518635</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5640846918586239</v>
+        <v>0.5648139436386489</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>236267</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>210759</v>
+        <v>211544</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>264005</v>
+        <v>262048</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3084581473364775</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2751569096102331</v>
+        <v>0.2761806386706881</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3446720589393459</v>
+        <v>0.3421162171808689</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>232</v>
@@ -3844,19 +3844,19 @@
         <v>251693</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>225336</v>
+        <v>225547</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>278114</v>
+        <v>276505</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3069453164005216</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.27480259211236</v>
+        <v>0.2750603106197353</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3391663188991528</v>
+        <v>0.3372046972852209</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>458</v>
@@ -3865,19 +3865,19 @@
         <v>487960</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>449867</v>
+        <v>451747</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>525724</v>
+        <v>530175</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3076759618967241</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2836571738836387</v>
+        <v>0.2848426388750498</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3314874410169519</v>
+        <v>0.3342941682688201</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>100024</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>81568</v>
+        <v>83111</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>119048</v>
+        <v>120154</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1305868309112291</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1064906274276032</v>
+        <v>0.1085053185612545</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.155423497587572</v>
+        <v>0.1568667075343778</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>89</v>
@@ -3915,19 +3915,19 @@
         <v>97300</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>79561</v>
+        <v>79740</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>117473</v>
+        <v>116724</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1186602139586636</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09702679822506322</v>
+        <v>0.09724505142176858</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1432606654898528</v>
+        <v>0.1423479751737336</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>189</v>
@@ -3936,19 +3936,19 @@
         <v>197325</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>173785</v>
+        <v>171186</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>225256</v>
+        <v>224555</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1244203612125391</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1095775228085792</v>
+        <v>0.1079387236398227</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1420319950533203</v>
+        <v>0.14158992476829</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>9940</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>5497</v>
+        <v>5226</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>16757</v>
+        <v>17176</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01297743837725398</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.007176800431332796</v>
+        <v>0.006822330924377084</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02187657438214244</v>
+        <v>0.0224244868307767</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>6</v>
@@ -3986,19 +3986,19 @@
         <v>7081</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>2610</v>
+        <v>3118</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>14764</v>
+        <v>14645</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.008635608079753583</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.003182418702104212</v>
+        <v>0.003803003223740554</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01800445660913255</v>
+        <v>0.01786012662344357</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>17</v>
@@ -4007,19 +4007,19 @@
         <v>17021</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>10084</v>
+        <v>10008</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>26899</v>
+        <v>26521</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01073256331562712</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.006358479410784425</v>
+        <v>0.006310328993426047</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01696108246319281</v>
+        <v>0.01672239003425113</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>22553</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>14194</v>
+        <v>13445</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>33128</v>
+        <v>33043</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02944444550114862</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01853053870417707</v>
+        <v>0.01755325962166453</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04325077800123783</v>
+        <v>0.04313969914393253</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>5</v>
@@ -4057,19 +4057,19 @@
         <v>5307</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>12829</v>
+        <v>11360</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.006472575018273178</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.002384404722192724</v>
+        <v>0.002371441292424931</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0156448068788074</v>
+        <v>0.01385320755604291</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>27</v>
@@ -4078,19 +4078,19 @@
         <v>27861</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>18757</v>
+        <v>18686</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>40509</v>
+        <v>39770</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01756720119806802</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01182725409910245</v>
+        <v>0.01178220532382329</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0255420632273593</v>
+        <v>0.02507646614526305</v>
       </c>
     </row>
     <row r="51">
@@ -4182,19 +4182,19 @@
         <v>1159819</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1103916</v>
+        <v>1104026</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1217128</v>
+        <v>1212076</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.3516768791810073</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.3347260257733845</v>
+        <v>0.3347593440824672</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3690537674932622</v>
+        <v>0.3675221725149477</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1420</v>
@@ -4203,19 +4203,19 @@
         <v>1498160</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1435587</v>
+        <v>1440842</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1557015</v>
+        <v>1556139</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.4335405397652995</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.4154329266520032</v>
+        <v>0.4169535347361967</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.4505718356250996</v>
+        <v>0.4503183655573297</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2517</v>
@@ -4224,19 +4224,19 @@
         <v>2657980</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2575636</v>
+        <v>2571407</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2737114</v>
+        <v>2739367</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3935643245691807</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3813717611843505</v>
+        <v>0.380745550128183</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.4052816501405505</v>
+        <v>0.4056151813736849</v>
       </c>
     </row>
     <row r="53">
@@ -4253,19 +4253,19 @@
         <v>990542</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>935129</v>
+        <v>938444</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1042629</v>
+        <v>1041860</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3003492446485673</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2835469012925993</v>
+        <v>0.2845521843186458</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3161428891754341</v>
+        <v>0.3159098227666063</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1071</v>
@@ -4274,19 +4274,19 @@
         <v>1130839</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1072750</v>
+        <v>1073929</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1186590</v>
+        <v>1191032</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.327244282017195</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.3104344688229672</v>
+        <v>0.3107754942992269</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.343377563597331</v>
+        <v>0.3446631282953429</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>2020</v>
@@ -4295,19 +4295,19 @@
         <v>2121381</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2039645</v>
+        <v>2044533</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2200559</v>
+        <v>2195488</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.3141107158673053</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3020081039848773</v>
+        <v>0.3027318903890395</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3258345339179194</v>
+        <v>0.3250836538650297</v>
       </c>
     </row>
     <row r="54">
@@ -4324,19 +4324,19 @@
         <v>805598</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>756327</v>
+        <v>758485</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>854992</v>
+        <v>856483</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2442710768999066</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2293311075857061</v>
+        <v>0.2299856328327358</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2592482163777878</v>
+        <v>0.2597002206236445</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>605</v>
@@ -4345,19 +4345,19 @@
         <v>640242</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>596236</v>
+        <v>597474</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>688372</v>
+        <v>689079</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1852743864861112</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1725398529800754</v>
+        <v>0.1728980622291741</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1992025363436935</v>
+        <v>0.1994071112119154</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1371</v>
@@ -4366,19 +4366,19 @@
         <v>1445840</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1379631</v>
+        <v>1379086</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1512986</v>
+        <v>1514859</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2140840484900752</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2042805823589219</v>
+        <v>0.2041998998693369</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2240262473814086</v>
+        <v>0.2243036270591545</v>
       </c>
     </row>
     <row r="55">
@@ -4395,19 +4395,19 @@
         <v>98463</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>79158</v>
+        <v>81060</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>119366</v>
+        <v>119098</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.02985564039932224</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02400195843642251</v>
+        <v>0.02457876433001552</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03619365158032341</v>
+        <v>0.03611249715532537</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>53</v>
@@ -4416,19 +4416,19 @@
         <v>62807</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>47322</v>
+        <v>47180</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>80244</v>
+        <v>82494</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01817532455341282</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0136941902761318</v>
+        <v>0.01365301756496276</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.02322116171842696</v>
+        <v>0.02387218698086458</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>148</v>
@@ -4437,19 +4437,19 @@
         <v>161270</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>136512</v>
+        <v>137517</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>189621</v>
+        <v>188558</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02387913521228172</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.02021317896684708</v>
+        <v>0.02036196595868047</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02807697288011263</v>
+        <v>0.02791953001344392</v>
       </c>
     </row>
     <row r="56">
@@ -4466,19 +4466,19 @@
         <v>243546</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>216547</v>
+        <v>214968</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>275631</v>
+        <v>276331</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.0738471588711965</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.06566075555279</v>
+        <v>0.06518203525085195</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.08357609963508965</v>
+        <v>0.08378812064053703</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>110</v>
@@ -4487,19 +4487,19 @@
         <v>123593</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>101150</v>
+        <v>103079</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>148198</v>
+        <v>149023</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.03576546717798144</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.02927091244660843</v>
+        <v>0.02982928355425029</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.04288576883462271</v>
+        <v>0.04312457485741483</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>341</v>
@@ -4508,19 +4508,19 @@
         <v>367138</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>328317</v>
+        <v>331602</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>403139</v>
+        <v>410295</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.05436177586115708</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.04861359440420511</v>
+        <v>0.0491000176504332</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.05969244372928324</v>
+        <v>0.06075188113146649</v>
       </c>
     </row>
     <row r="57">
@@ -4856,19 +4856,19 @@
         <v>24719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15324</v>
+        <v>15203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40214</v>
+        <v>38813</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0777442063036988</v>
+        <v>0.07774420630369878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04819608671038265</v>
+        <v>0.0478149035407463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1264761886678799</v>
+        <v>0.1220694235597853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -4877,19 +4877,19 @@
         <v>31026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23309</v>
+        <v>23227</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40945</v>
+        <v>40741</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09838103719263994</v>
+        <v>0.09838103719263991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07391167656314179</v>
+        <v>0.0736513394674046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1298329853343303</v>
+        <v>0.1291865094005452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -4898,19 +4898,19 @@
         <v>55745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42223</v>
+        <v>42344</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70524</v>
+        <v>71714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08802043068467605</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06666977474193078</v>
+        <v>0.06685942343992073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1113551481995944</v>
+        <v>0.1132341312227694</v>
       </c>
     </row>
     <row r="5">
@@ -4927,19 +4927,19 @@
         <v>181520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>163988</v>
+        <v>163734</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200785</v>
+        <v>199540</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5708977857310846</v>
+        <v>0.5708977857310847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5157564123869884</v>
+        <v>0.5149566695505101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.631487871684796</v>
+        <v>0.6275710715795374</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>334</v>
@@ -4948,19 +4948,19 @@
         <v>199692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186811</v>
+        <v>186099</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213919</v>
+        <v>213305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6332079768662163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5923627433257178</v>
+        <v>0.5901041210232819</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6783205084240156</v>
+        <v>0.6763721660876167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>519</v>
@@ -4969,19 +4969,19 @@
         <v>381213</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>357261</v>
+        <v>357259</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>403180</v>
+        <v>403708</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6019254909428051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5641064395122517</v>
+        <v>0.5641035486970066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6366116935701803</v>
+        <v>0.637444768309843</v>
       </c>
     </row>
     <row r="6">
@@ -4998,19 +4998,19 @@
         <v>99426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>84206</v>
+        <v>81629</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116640</v>
+        <v>114818</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3127027040914642</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.264836181569155</v>
+        <v>0.2567307872761589</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3668434636627368</v>
+        <v>0.3611131898610271</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -5019,19 +5019,19 @@
         <v>73650</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62365</v>
+        <v>63035</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>86696</v>
+        <v>86335</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2335375416089489</v>
+        <v>0.2335375416089488</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1977549927446889</v>
+        <v>0.1998795914434559</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2749061865354737</v>
+        <v>0.2737605680999886</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>248</v>
@@ -5040,19 +5040,19 @@
         <v>173075</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>153615</v>
+        <v>153710</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>194487</v>
+        <v>194422</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2732819724294724</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2425546448942122</v>
+        <v>0.2427046845966731</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3070907268012598</v>
+        <v>0.3069880924483488</v>
       </c>
     </row>
     <row r="7">
@@ -5082,19 +5082,19 @@
         <v>1555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4668</v>
+        <v>4411</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.004929663083250145</v>
+        <v>0.004929663083250144</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001562662245490319</v>
+        <v>0.001545045874355343</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01480310366829608</v>
+        <v>0.0139868301153097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -5103,19 +5103,19 @@
         <v>1555</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4492</v>
+        <v>4465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002454753069340966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007707069265749489</v>
+        <v>0.0007560700921860025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007092415204384081</v>
+        <v>0.007049468816495074</v>
       </c>
     </row>
     <row r="8">
@@ -5132,19 +5132,19 @@
         <v>12291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7038</v>
+        <v>6480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20887</v>
+        <v>20364</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03865530387375252</v>
+        <v>0.03865530387375251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02213519548269886</v>
+        <v>0.02038109628984698</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06569006024563519</v>
+        <v>0.06404674311995212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -5153,19 +5153,19 @@
         <v>9443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5345</v>
+        <v>5495</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15861</v>
+        <v>15402</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02994378124894481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01694984501519009</v>
+        <v>0.01742387578021544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05029398057878973</v>
+        <v>0.04883884454903963</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -5174,19 +5174,19 @@
         <v>21734</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14629</v>
+        <v>14947</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31157</v>
+        <v>32102</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03431735287370547</v>
+        <v>0.03431735287370546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02309900792277754</v>
+        <v>0.02360112144014043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04919655211487702</v>
+        <v>0.05068830864064942</v>
       </c>
     </row>
     <row r="9">
@@ -5278,19 +5278,19 @@
         <v>75714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58410</v>
+        <v>55449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100156</v>
+        <v>98414</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1426820111026132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1100737592298994</v>
+        <v>0.1044924897220338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1887430818799973</v>
+        <v>0.1854604873239289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -5299,19 +5299,19 @@
         <v>94933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79608</v>
+        <v>79496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112347</v>
+        <v>112343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1743384548958049</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1461957079283908</v>
+        <v>0.145990302007623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2063183407377429</v>
+        <v>0.2063110970410197</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -5320,19 +5320,19 @@
         <v>170647</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143833</v>
+        <v>143602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198135</v>
+        <v>196500</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1587146412573879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1337757876927984</v>
+        <v>0.1335607198390225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1842805428758588</v>
+        <v>0.1827605996166752</v>
       </c>
     </row>
     <row r="11">
@@ -5349,19 +5349,19 @@
         <v>252168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>223358</v>
+        <v>221663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278504</v>
+        <v>280885</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4752093914063238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4209163126657571</v>
+        <v>0.4177223558107649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5248382579111064</v>
+        <v>0.5293260651680138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>400</v>
@@ -5370,19 +5370,19 @@
         <v>313734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293095</v>
+        <v>292314</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332294</v>
+        <v>333830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5761535447961085</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.538251504390024</v>
+        <v>0.5368177180741989</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6102378730893135</v>
+        <v>0.6130590383798677</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>570</v>
@@ -5391,19 +5391,19 @@
         <v>565902</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>529988</v>
+        <v>530324</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>602137</v>
+        <v>599817</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.52633327279231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4929297879673139</v>
+        <v>0.4932428923494129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5600338252693109</v>
+        <v>0.5578765838103796</v>
       </c>
     </row>
     <row r="12">
@@ -5420,19 +5420,19 @@
         <v>174328</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>149983</v>
+        <v>150533</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>200993</v>
+        <v>199898</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3285190057165431</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2826418541925484</v>
+        <v>0.2836775006884626</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3787705627626367</v>
+        <v>0.3767069069032216</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>166</v>
@@ -5441,19 +5441,19 @@
         <v>115140</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>99336</v>
+        <v>99370</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132664</v>
+        <v>132747</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2114477641631036</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1824246531662654</v>
+        <v>0.1824875906392237</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.243628695791868</v>
+        <v>0.2437811745481299</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>303</v>
@@ -5462,19 +5462,19 @@
         <v>289468</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>256367</v>
+        <v>261002</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>319575</v>
+        <v>322861</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2692274463156016</v>
+        <v>0.2692274463156015</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2384412680135421</v>
+        <v>0.2427522778572413</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2972291410463698</v>
+        <v>0.3002856253617922</v>
       </c>
     </row>
     <row r="13">
@@ -5491,19 +5491,19 @@
         <v>6482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2380</v>
+        <v>2321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13664</v>
+        <v>12791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01221580575423811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004485972602201947</v>
+        <v>0.004373409948877846</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02574887664746626</v>
+        <v>0.02410488387183605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5515,16 +5515,16 @@
         <v>599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6431</v>
+        <v>6334</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004747514687410643</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00109975105199181</v>
+        <v>0.00109919358564361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01181053084932809</v>
+        <v>0.01163128421005875</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -5533,19 +5533,19 @@
         <v>9067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4804</v>
+        <v>4441</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17612</v>
+        <v>16685</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008433436851878823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004467888547922764</v>
+        <v>0.004130250158359278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01638078922217763</v>
+        <v>0.01551836437254947</v>
       </c>
     </row>
     <row r="14">
@@ -5562,19 +5562,19 @@
         <v>21955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13281</v>
+        <v>12748</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33419</v>
+        <v>34688</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04137378602028177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02502856545290935</v>
+        <v>0.02402269428525274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06297790905984987</v>
+        <v>0.06536964178288766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -5583,19 +5583,19 @@
         <v>18140</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12465</v>
+        <v>12316</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26389</v>
+        <v>27138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03331272145757255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02289050938048163</v>
+        <v>0.02261753527189413</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04846115357613139</v>
+        <v>0.04983740635136311</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -5604,19 +5604,19 @@
         <v>40095</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29359</v>
+        <v>30378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55355</v>
+        <v>54081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0372912027828218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02730620975077262</v>
+        <v>0.02825413965412274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05148429982837063</v>
+        <v>0.05029954260207287</v>
       </c>
     </row>
     <row r="15">
@@ -5708,19 +5708,19 @@
         <v>51074</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38634</v>
+        <v>39829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64972</v>
+        <v>65916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1633538945510232</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1235665513210762</v>
+        <v>0.1273866759716254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2078048429426296</v>
+        <v>0.2108227222177233</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>121</v>
@@ -5729,19 +5729,19 @@
         <v>89580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75913</v>
+        <v>75613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105030</v>
+        <v>104670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2530951893988681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2144805232920602</v>
+        <v>0.2136336722206852</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2967485398701094</v>
+        <v>0.2957316355747911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -5750,19 +5750,19 @@
         <v>140654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121718</v>
+        <v>122511</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159568</v>
+        <v>162164</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2110030131657035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1825963221672521</v>
+        <v>0.1837857484656027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2393773825776734</v>
+        <v>0.243270856978041</v>
       </c>
     </row>
     <row r="17">
@@ -5779,19 +5779,19 @@
         <v>138358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122357</v>
+        <v>121576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>153928</v>
+        <v>155007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4425182652731398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.391342217694773</v>
+        <v>0.3888455301042185</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4923165199651235</v>
+        <v>0.4957691475836776</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>252</v>
@@ -5800,19 +5800,19 @@
         <v>170709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154733</v>
+        <v>154709</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186733</v>
+        <v>187232</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4823148536391565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4371772084104318</v>
+        <v>0.4371095823954266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5275876300558719</v>
+        <v>0.528997464735709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -5821,19 +5821,19 @@
         <v>309067</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286348</v>
+        <v>284918</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332558</v>
+        <v>334100</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4636486976201105</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4295661396640847</v>
+        <v>0.4274215411776964</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4988880212610085</v>
+        <v>0.5012016084801248</v>
       </c>
     </row>
     <row r="18">
@@ -5850,19 +5850,19 @@
         <v>99288</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84861</v>
+        <v>85524</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>114895</v>
+        <v>116579</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3175578868899634</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2714168633187972</v>
+        <v>0.2735379614238427</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3674763672701864</v>
+        <v>0.3728613681985034</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -5871,19 +5871,19 @@
         <v>70824</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58579</v>
+        <v>58953</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83113</v>
+        <v>84456</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2001024533434003</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1655056717038506</v>
+        <v>0.1665645799942305</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2348234000585193</v>
+        <v>0.2386178185506367</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>242</v>
@@ -5892,19 +5892,19 @@
         <v>170112</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>151093</v>
+        <v>150973</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>190487</v>
+        <v>190140</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2551936442691285</v>
+        <v>0.2551936442691284</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2266635589511621</v>
+        <v>0.2264821206824288</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2857596082729091</v>
+        <v>0.2852397551124738</v>
       </c>
     </row>
     <row r="19">
@@ -5921,19 +5921,19 @@
         <v>7406</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4187</v>
+        <v>3923</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13568</v>
+        <v>12760</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02368675159036946</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0133917357788385</v>
+        <v>0.01254654808968044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04339662087766161</v>
+        <v>0.04081061539298194</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -5942,19 +5942,19 @@
         <v>5654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2344</v>
+        <v>2592</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11048</v>
+        <v>10888</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01597549772391895</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006622931330019351</v>
+        <v>0.00732367243984258</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03121522343660143</v>
+        <v>0.03076373579574206</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -5963,19 +5963,19 @@
         <v>13060</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7649</v>
+        <v>8291</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20313</v>
+        <v>20222</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01959237730288684</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01147508230535929</v>
+        <v>0.01243753775114191</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0304730040930151</v>
+        <v>0.03033539571546963</v>
       </c>
     </row>
     <row r="20">
@@ -5992,19 +5992,19 @@
         <v>16534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10512</v>
+        <v>9716</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24257</v>
+        <v>24156</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05288320169550415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0336226666129569</v>
+        <v>0.03107528692070921</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07758156739110587</v>
+        <v>0.07725862449213125</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -6013,19 +6013,19 @@
         <v>17170</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11915</v>
+        <v>11785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23950</v>
+        <v>24675</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04851200589465608</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03366354825229897</v>
+        <v>0.03329736536492761</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06766863946984095</v>
+        <v>0.06971459879781675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -6034,19 +6034,19 @@
         <v>33705</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24978</v>
+        <v>25814</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43812</v>
+        <v>44644</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.05056226764217069</v>
+        <v>0.05056226764217068</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0374701578907127</v>
+        <v>0.03872447150989108</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06572534516823789</v>
+        <v>0.06697263598718453</v>
       </c>
     </row>
     <row r="21">
@@ -6138,19 +6138,19 @@
         <v>146323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125192</v>
+        <v>120067</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>173219</v>
+        <v>173484</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4002943842739546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3424852184735726</v>
+        <v>0.3284652377595202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4738733578258377</v>
+        <v>0.4745989223311306</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>265</v>
@@ -6159,19 +6159,19 @@
         <v>211826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>191612</v>
+        <v>193245</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>232947</v>
+        <v>230904</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5159430739223289</v>
+        <v>0.515943073922329</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4667089483747611</v>
+        <v>0.4706865772018435</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5673875679021579</v>
+        <v>0.5624111054843108</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>365</v>
@@ -6180,19 +6180,19 @@
         <v>358149</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>326659</v>
+        <v>321588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>390385</v>
+        <v>387348</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4614730733417674</v>
+        <v>0.4614730733417675</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4208986942036835</v>
+        <v>0.4143642488418368</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5030088667244491</v>
+        <v>0.4990955885459162</v>
       </c>
     </row>
     <row r="23">
@@ -6209,19 +6209,19 @@
         <v>171796</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>146315</v>
+        <v>146303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>196126</v>
+        <v>197461</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4699788828706114</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4002731139492381</v>
+        <v>0.400240140534638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5365400229247996</v>
+        <v>0.5401904703153985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>229</v>
@@ -6230,19 +6230,19 @@
         <v>151511</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>134499</v>
+        <v>134605</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>169946</v>
+        <v>170835</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3690347327214659</v>
+        <v>0.3690347327214658</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.32760005793855</v>
+        <v>0.3278580051517354</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4139381749949282</v>
+        <v>0.4161022717156297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>363</v>
@@ -6251,19 +6251,19 @@
         <v>323307</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>292500</v>
+        <v>294256</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>357264</v>
+        <v>358724</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4165789628718116</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3768848108853329</v>
+        <v>0.379147681721277</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.460333242553457</v>
+        <v>0.4622140322752739</v>
       </c>
     </row>
     <row r="24">
@@ -6280,19 +6280,19 @@
         <v>38360</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26415</v>
+        <v>26726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56280</v>
+        <v>56713</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1049396225029286</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07226201598000737</v>
+        <v>0.0731144205144701</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.153965198491589</v>
+        <v>0.1551481834229767</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>70</v>
@@ -6301,19 +6301,19 @@
         <v>41962</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>32142</v>
+        <v>32456</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56590</v>
+        <v>55872</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1022070357237431</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07828912363323606</v>
+        <v>0.07905201093208404</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1378358725309463</v>
+        <v>0.1360861423870155</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>109</v>
@@ -6322,19 +6322,19 @@
         <v>80322</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64881</v>
+        <v>64248</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104254</v>
+        <v>100869</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1034940715207004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08359929378499904</v>
+        <v>0.08278352395732096</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1343313318996458</v>
+        <v>0.1299696078566746</v>
       </c>
     </row>
     <row r="25">
@@ -6351,19 +6351,19 @@
         <v>4291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14091</v>
+        <v>14018</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01173876687985117</v>
+        <v>0.01173876687985116</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001999349445018274</v>
+        <v>0.002067517655929389</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03854746901473864</v>
+        <v>0.03834929255644461</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2899</v>
+        <v>2570</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002032677727988851</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007060914992402971</v>
+        <v>0.006260569441459599</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -6393,19 +6393,19 @@
         <v>5126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1549</v>
+        <v>1570</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12503</v>
+        <v>12892</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006604201048697324</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001995527989143599</v>
+        <v>0.002022325824356356</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01611050189157754</v>
+        <v>0.01661145333817981</v>
       </c>
     </row>
     <row r="26">
@@ -6422,19 +6422,19 @@
         <v>4770</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1738</v>
+        <v>2027</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9697</v>
+        <v>9513</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01304834347265439</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004754217895437669</v>
+        <v>0.005545851427824633</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02652822296662914</v>
+        <v>0.02602556283314304</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -6443,19 +6443,19 @@
         <v>4427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2256</v>
+        <v>2131</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7534</v>
+        <v>7950</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01078247990447349</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00549507860523995</v>
+        <v>0.005191216978455254</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01835045936849544</v>
+        <v>0.01936482285227939</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -6464,19 +6464,19 @@
         <v>9197</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5131</v>
+        <v>5574</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14267</v>
+        <v>14946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01184969121702311</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006611787981101967</v>
+        <v>0.007182262404428458</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01838242218323913</v>
+        <v>0.01925838245077232</v>
       </c>
     </row>
     <row r="27">
@@ -6568,19 +6568,19 @@
         <v>82880</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>71127</v>
+        <v>69796</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>96664</v>
+        <v>95024</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4029843819993784</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3458383681361979</v>
+        <v>0.3393689306440996</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4700082975037345</v>
+        <v>0.4620317920584948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>201</v>
@@ -6589,19 +6589,19 @@
         <v>93352</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>82401</v>
+        <v>81735</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>103967</v>
+        <v>103426</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4123627195529344</v>
+        <v>0.4123627195529343</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3639879807017845</v>
+        <v>0.3610459080761676</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4592501343916246</v>
+        <v>0.4568589750745775</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>315</v>
@@ -6610,19 +6610,19 @@
         <v>176232</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>161576</v>
+        <v>159992</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>192910</v>
+        <v>192986</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4078984246934237</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3739759927638356</v>
+        <v>0.3703108808898054</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4465009496824018</v>
+        <v>0.4466753476348046</v>
       </c>
     </row>
     <row r="29">
@@ -6639,19 +6639,19 @@
         <v>118800</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>106241</v>
+        <v>106436</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>131356</v>
+        <v>130868</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5776386649429249</v>
+        <v>0.577638664942925</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5165753505422477</v>
+        <v>0.517519116630267</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6386907786753777</v>
+        <v>0.6363186321201945</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>279</v>
@@ -6660,19 +6660,19 @@
         <v>129034</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>118876</v>
+        <v>118865</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>140090</v>
+        <v>140253</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5699791725479736</v>
+        <v>0.5699791725479735</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5251091625561037</v>
+        <v>0.525060716682292</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6188170990768059</v>
+        <v>0.6195359441616571</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>438</v>
@@ -6681,19 +6681,19 @@
         <v>247834</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>230851</v>
+        <v>230769</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>262578</v>
+        <v>265124</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5736252593229453</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.534316899224215</v>
+        <v>0.5341267300328779</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6077508950187231</v>
+        <v>0.6136428993332862</v>
       </c>
     </row>
     <row r="30">
@@ -6710,19 +6710,19 @@
         <v>3028</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>744</v>
+        <v>1035</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7470</v>
+        <v>7715</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0147237967440852</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003617535688706857</v>
+        <v>0.005034101407052138</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03632117049141224</v>
+        <v>0.03751201284023756</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -6731,19 +6731,19 @@
         <v>2493</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5043</v>
+        <v>5307</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01101081811923214</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004036678665736013</v>
+        <v>0.003890603070139642</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0222779306766048</v>
+        <v>0.02344410304719424</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -6752,19 +6752,19 @@
         <v>5521</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2648</v>
+        <v>2716</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10203</v>
+        <v>10830</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01277827757499881</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00612875652257599</v>
+        <v>0.006286392427902583</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02361423411313222</v>
+        <v>0.02506672731811203</v>
       </c>
     </row>
     <row r="31">
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2687</v>
+        <v>2378</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002306057525254227</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01306602247222558</v>
+        <v>0.01156489452994882</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -6802,19 +6802,19 @@
         <v>1119</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3288</v>
+        <v>2759</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004941981452988064</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001477011735499512</v>
+        <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01452221930252213</v>
+        <v>0.01218669640148744</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -6823,19 +6823,19 @@
         <v>1593</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3748</v>
+        <v>4009</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003687223712243146</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0009208344264590405</v>
+        <v>0.001082986278143602</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.008673997633216066</v>
+        <v>0.009278959709269789</v>
       </c>
     </row>
     <row r="32">
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2667</v>
+        <v>2943</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002347098788357217</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01296980240000505</v>
+        <v>0.01430861287930911</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.001705308326872033</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.00834147625669969</v>
+        <v>0.008349183202885148</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2928</v>
+        <v>2748</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002010814696388969</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006776105193018003</v>
+        <v>0.006360029871749195</v>
       </c>
     </row>
     <row r="33">
@@ -6998,19 +6998,19 @@
         <v>18109</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11462</v>
+        <v>11121</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>27942</v>
+        <v>28081</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06707482911539454</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04245447345213545</v>
+        <v>0.0411915406642131</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1034950855153016</v>
+        <v>0.1040120220701368</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>41</v>
@@ -7019,19 +7019,19 @@
         <v>29355</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>21559</v>
+        <v>21072</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>38784</v>
+        <v>39072</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1112997967865472</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08174150638192242</v>
+        <v>0.07989458302222388</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1470498827505846</v>
+        <v>0.1481411266980498</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>61</v>
@@ -7040,19 +7040,19 @@
         <v>47464</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>35606</v>
+        <v>35570</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>60848</v>
+        <v>60381</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08892919547272771</v>
+        <v>0.08892919547272773</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06671127197745595</v>
+        <v>0.06664335853610184</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1140054328608935</v>
+        <v>0.1131302843859508</v>
       </c>
     </row>
     <row r="35">
@@ -7069,19 +7069,19 @@
         <v>123320</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>108889</v>
+        <v>107008</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>137454</v>
+        <v>136442</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4567734843093278</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4033202287413901</v>
+        <v>0.3963522550933313</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5091251894347724</v>
+        <v>0.5053776412250578</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>216</v>
@@ -7090,19 +7090,19 @@
         <v>138879</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>126076</v>
+        <v>126463</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>151429</v>
+        <v>150995</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.5265564761239939</v>
+        <v>0.5265564761239937</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4780141448376959</v>
+        <v>0.4794820041945114</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5741382045048015</v>
+        <v>0.5724942663209236</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>370</v>
@@ -7111,19 +7111,19 @@
         <v>262199</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>241670</v>
+        <v>241657</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>280807</v>
+        <v>283529</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4912576942237031</v>
+        <v>0.4912576942237032</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4527940365787981</v>
+        <v>0.452768909399873</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5261216528927279</v>
+        <v>0.5312215825659669</v>
       </c>
     </row>
     <row r="36">
@@ -7140,19 +7140,19 @@
         <v>101035</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>87310</v>
+        <v>88374</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>115337</v>
+        <v>117296</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.374229515032532</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3233941241762552</v>
+        <v>0.3273358317661948</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4272029236329776</v>
+        <v>0.4344602777267153</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>155</v>
@@ -7161,19 +7161,19 @@
         <v>73850</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>63512</v>
+        <v>63567</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>85451</v>
+        <v>85727</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2799994311112575</v>
+        <v>0.2799994311112573</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2408027550884827</v>
+        <v>0.2410138863089651</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3239831253413128</v>
+        <v>0.3250319421082276</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>305</v>
@@ -7182,19 +7182,19 @@
         <v>174885</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>157878</v>
+        <v>158573</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>193800</v>
+        <v>192988</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.327664443663558</v>
+        <v>0.3276644436635581</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2958010782473818</v>
+        <v>0.2971021118438727</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.363103445069294</v>
+        <v>0.3615823031190779</v>
       </c>
     </row>
     <row r="37">
@@ -7211,19 +7211,19 @@
         <v>7291</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3842</v>
+        <v>3742</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12953</v>
+        <v>13446</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02700650335714761</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01423241499255831</v>
+        <v>0.01385915772127886</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04797589389442866</v>
+        <v>0.04980228523953356</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>16</v>
@@ -7232,19 +7232,19 @@
         <v>8931</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5001</v>
+        <v>4991</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14274</v>
+        <v>14738</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03386176744519907</v>
+        <v>0.03386176744519906</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01896233116058773</v>
+        <v>0.01892153089167181</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05412026482633659</v>
+        <v>0.05587679630925593</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -7253,19 +7253,19 @@
         <v>16222</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10829</v>
+        <v>10426</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>23583</v>
+        <v>23824</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03039412489190047</v>
+        <v>0.03039412489190048</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02028898685957164</v>
+        <v>0.01953497822528548</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04418574959382591</v>
+        <v>0.04463621538289584</v>
       </c>
     </row>
     <row r="38">
@@ -7282,19 +7282,19 @@
         <v>20226</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14274</v>
+        <v>14211</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>27924</v>
+        <v>29246</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.07491566818559792</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05287061048644093</v>
+        <v>0.05263743432542522</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1034298616102908</v>
+        <v>0.1083260334863027</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>32</v>
@@ -7303,19 +7303,19 @@
         <v>12735</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>9069</v>
+        <v>8595</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18234</v>
+        <v>18655</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.04828252853300261</v>
+        <v>0.04828252853300258</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03438642678859048</v>
+        <v>0.03258756293332998</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06913538509790548</v>
+        <v>0.07073166504731609</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>67</v>
@@ -7324,19 +7324,19 @@
         <v>32960</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>25694</v>
+        <v>25241</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>43071</v>
+        <v>41794</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.06175454174811042</v>
+        <v>0.06175454174811044</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04814008368886848</v>
+        <v>0.04729186243503028</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08069794693117636</v>
+        <v>0.0783052720296205</v>
       </c>
     </row>
     <row r="39">
@@ -7428,19 +7428,19 @@
         <v>231060</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>202411</v>
+        <v>201429</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>261252</v>
+        <v>258525</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3230444644697583</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2829894954974211</v>
+        <v>0.2816166240094731</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3652561204666979</v>
+        <v>0.3614432360198455</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>375</v>
@@ -7449,19 +7449,19 @@
         <v>309759</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>282979</v>
+        <v>283237</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>337887</v>
+        <v>334458</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4035906005352865</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3686977124958345</v>
+        <v>0.3690345609492897</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4402380956582458</v>
+        <v>0.4357710702828417</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>559</v>
@@ -7470,19 +7470,19 @@
         <v>540820</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>504287</v>
+        <v>503711</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>579255</v>
+        <v>578014</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3647367059212563</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3400982840198253</v>
+        <v>0.3397100102252529</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3906576279633294</v>
+        <v>0.3898210398257076</v>
       </c>
     </row>
     <row r="41">
@@ -7499,19 +7499,19 @@
         <v>314085</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>283259</v>
+        <v>285493</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>345412</v>
+        <v>344722</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4391217148110844</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.396022995232254</v>
+        <v>0.3991465084698723</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4829194932749296</v>
+        <v>0.4819552350105059</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>470</v>
@@ -7520,19 +7520,19 @@
         <v>373827</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>347544</v>
+        <v>348679</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>399825</v>
+        <v>398283</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4870650414054889</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4528208610719874</v>
+        <v>0.4542996848927381</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5209383296218153</v>
+        <v>0.5189288302893618</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>731</v>
@@ -7541,19 +7541,19 @@
         <v>687913</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>651858</v>
+        <v>647725</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>728615</v>
+        <v>725764</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4639381100598368</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4396226635820751</v>
+        <v>0.4368349260053279</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4913884669249867</v>
+        <v>0.4894653150704485</v>
       </c>
     </row>
     <row r="42">
@@ -7570,19 +7570,19 @@
         <v>138406</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>116025</v>
+        <v>116094</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>163703</v>
+        <v>164344</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1935048014101835</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1622146440187217</v>
+        <v>0.1623108719876685</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2288727259970731</v>
+        <v>0.2297694408556272</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>91</v>
@@ -7591,19 +7591,19 @@
         <v>69235</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>55651</v>
+        <v>56025</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>85994</v>
+        <v>85102</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09020776394796975</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07250827003017279</v>
+        <v>0.07299567769875463</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1120434192201511</v>
+        <v>0.110880442082762</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>213</v>
@@ -7612,19 +7612,19 @@
         <v>207641</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>180187</v>
+        <v>180080</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>236141</v>
+        <v>237033</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.140036252359049</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1215210162329182</v>
+        <v>0.1214486833150406</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1592566932531855</v>
+        <v>0.159858645758821</v>
       </c>
     </row>
     <row r="43">
@@ -7641,19 +7641,19 @@
         <v>10727</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5581</v>
+        <v>5136</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>19983</v>
+        <v>19485</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.01499767495324552</v>
+        <v>0.01499767495324551</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.007802931543334661</v>
+        <v>0.0071801993273194</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0279381615764228</v>
+        <v>0.02724256385631357</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>5</v>
@@ -7662,19 +7662,19 @@
         <v>4031</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>9499</v>
+        <v>9322</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.005252633460126556</v>
+        <v>0.005252633460126558</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.001745594199261126</v>
+        <v>0.001740747553890477</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01237684296734693</v>
+        <v>0.01214589437739005</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>15</v>
@@ -7683,19 +7683,19 @@
         <v>14759</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>8768</v>
+        <v>8352</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>24651</v>
+        <v>24095</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.00995345256428519</v>
+        <v>0.009953452564285193</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.00591323922710502</v>
+        <v>0.005632662735091869</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01662525124769145</v>
+        <v>0.01624993436732249</v>
       </c>
     </row>
     <row r="44">
@@ -7712,19 +7712,19 @@
         <v>20979</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>12304</v>
+        <v>12299</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>34459</v>
+        <v>33302</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02933134435572823</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01720277005145528</v>
+        <v>0.01719536417354966</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04817724962902914</v>
+        <v>0.04655940061517758</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>13</v>
@@ -7733,19 +7733,19 @@
         <v>10656</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5981</v>
+        <v>5907</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>18239</v>
+        <v>18008</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0138839606511282</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.007792564263317898</v>
+        <v>0.007696456733880853</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02376397675928712</v>
+        <v>0.0234631847844446</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>30</v>
@@ -7754,19 +7754,19 @@
         <v>31636</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>22042</v>
+        <v>21500</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>46595</v>
+        <v>44895</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02133547909557267</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01486572110542968</v>
+        <v>0.01450001779042413</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03142446250430738</v>
+        <v>0.03027801379731602</v>
       </c>
     </row>
     <row r="45">
@@ -7858,19 +7858,19 @@
         <v>187393</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>161147</v>
+        <v>163531</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>213309</v>
+        <v>214004</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2349989951070361</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2020852841422489</v>
+        <v>0.2050757032968389</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2674990402627764</v>
+        <v>0.2683709625553773</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>404</v>
@@ -7879,19 +7879,19 @@
         <v>319016</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>294339</v>
+        <v>295235</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>346597</v>
+        <v>345135</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.384074776834239</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3543653872886511</v>
+        <v>0.3554438739491029</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.4172804197950331</v>
+        <v>0.4155200634036734</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>573</v>
@@ -7900,19 +7900,19 @@
         <v>506409</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>470192</v>
+        <v>469334</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>545661</v>
+        <v>542858</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3110564310559031</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2888108302146017</v>
+        <v>0.2882840081463354</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3351667300215637</v>
+        <v>0.3334451529528858</v>
       </c>
     </row>
     <row r="47">
@@ -7929,19 +7929,19 @@
         <v>507786</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>479504</v>
+        <v>477696</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>535293</v>
+        <v>534135</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.6367866061641541</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6013199382706901</v>
+        <v>0.5990528543060957</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6712823035396437</v>
+        <v>0.6698303564352076</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>551</v>
@@ -7950,19 +7950,19 @@
         <v>434107</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>407926</v>
+        <v>409424</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>461546</v>
+        <v>459492</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.5226366827817649</v>
+        <v>0.522636682781765</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.4911167992708382</v>
+        <v>0.4929203962936907</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5556722243275107</v>
+        <v>0.553198501874942</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1035</v>
@@ -7971,19 +7971,19 @@
         <v>941893</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>902416</v>
+        <v>904044</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>980780</v>
+        <v>979939</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5785481023264789</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5543000115385806</v>
+        <v>0.5552998252584295</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6024341765164205</v>
+        <v>0.6019180486108016</v>
       </c>
     </row>
     <row r="48">
@@ -8000,19 +8000,19 @@
         <v>73313</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>59237</v>
+        <v>56902</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>91910</v>
+        <v>88886</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.09193740295637255</v>
+        <v>0.09193740295637257</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.07428571214779324</v>
+        <v>0.07135732041476001</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1152599704722947</v>
+        <v>0.1114669859954032</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>66</v>
@@ -8021,19 +8021,19 @@
         <v>51102</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>39836</v>
+        <v>39580</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>64882</v>
+        <v>65176</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.06152382473570656</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.04795976289715388</v>
+        <v>0.04765136839562135</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.07811373159341788</v>
+        <v>0.07846820562475114</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>140</v>
@@ -8042,19 +8042,19 @@
         <v>124415</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>105991</v>
+        <v>105547</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>144940</v>
+        <v>147503</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.07642060505202147</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.06510419745952614</v>
+        <v>0.06483129735103056</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.089027995935614</v>
+        <v>0.09060219875257466</v>
       </c>
     </row>
     <row r="49">
@@ -8071,19 +8071,19 @@
         <v>15233</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>9318</v>
+        <v>9291</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>23092</v>
+        <v>22807</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01910333160697359</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01168570618899644</v>
+        <v>0.01165145251407927</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02895903927232756</v>
+        <v>0.02860076560695965</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>29</v>
@@ -8092,19 +8092,19 @@
         <v>19013</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>13007</v>
+        <v>13331</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>27405</v>
+        <v>27303</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.02288988672978815</v>
+        <v>0.02288988672978816</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01565992473672784</v>
+        <v>0.01604949103934807</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0329941078571287</v>
+        <v>0.03287116841024507</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>49</v>
@@ -8113,19 +8113,19 @@
         <v>34246</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>25412</v>
+        <v>25904</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>45375</v>
+        <v>44999</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02103520592206075</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01560925221110767</v>
+        <v>0.01591110257886102</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02787097285344194</v>
+        <v>0.02763988623700019</v>
       </c>
     </row>
     <row r="50">
@@ -8142,19 +8142,19 @@
         <v>13695</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>7238</v>
+        <v>7830</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>21076</v>
+        <v>22793</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01717366416546368</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.009076721452114331</v>
+        <v>0.009818642124638413</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02643072554927068</v>
+        <v>0.02858334558237895</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>11</v>
@@ -8163,19 +8163,19 @@
         <v>7372</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>4008</v>
+        <v>3876</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>13136</v>
+        <v>13043</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.008874828918501387</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.004825715744772832</v>
+        <v>0.004666636428452852</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0158154976836693</v>
+        <v>0.01570328912419319</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>25</v>
@@ -8184,19 +8184,19 @@
         <v>21066</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>13642</v>
+        <v>13790</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>31604</v>
+        <v>31773</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01293965564353582</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.008379317381726877</v>
+        <v>0.008470162186540318</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01941217239917353</v>
+        <v>0.01951636791333847</v>
       </c>
     </row>
     <row r="51">
@@ -8288,19 +8288,19 @@
         <v>817272</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>757912</v>
+        <v>758862</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>876340</v>
+        <v>878208</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2325015550815581</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2156146601769081</v>
+        <v>0.2158847150647733</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2493054501978822</v>
+        <v>0.2498369163668153</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1572</v>
@@ -8309,19 +8309,19 @@
         <v>1178847</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1131446</v>
+        <v>1127372</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1235072</v>
+        <v>1230439</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.3175220029254342</v>
+        <v>0.3175220029254341</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3047544835262478</v>
+        <v>0.3036572059103252</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3326661388589176</v>
+        <v>0.3314182030672327</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2282</v>
@@ -8330,19 +8330,19 @@
         <v>1996119</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1908886</v>
+        <v>1922456</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2071664</v>
+        <v>2087191</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.2761735104468416</v>
+        <v>0.2761735104468415</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2641042760232118</v>
+        <v>0.2659817646854079</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2866254758802864</v>
+        <v>0.2887736661389677</v>
       </c>
     </row>
     <row r="53">
@@ -8359,19 +8359,19 @@
         <v>1807833</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1742694</v>
+        <v>1742445</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1875551</v>
+        <v>1878217</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.5143013244128906</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.4957701533280013</v>
+        <v>0.4956994211678862</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.5335659873297568</v>
+        <v>0.5343242609592428</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2731</v>
@@ -8380,19 +8380,19 @@
         <v>1911494</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1858322</v>
+        <v>1858327</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1962533</v>
+        <v>1971849</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.5148599596739342</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.5005380899966351</v>
+        <v>0.500539465666233</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.5286072314794968</v>
+        <v>0.5311166489317694</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>4424</v>
@@ -8401,19 +8401,19 @@
         <v>3719327</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>3634541</v>
+        <v>3628750</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>3811548</v>
+        <v>3793009</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.5145882753147556</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.5028576430105892</v>
+        <v>0.5020565073152384</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.5273475638117436</v>
+        <v>0.5247824951312224</v>
       </c>
     </row>
     <row r="54">
@@ -8430,19 +8430,19 @@
         <v>727182</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>677462</v>
+        <v>678953</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>780047</v>
+        <v>778636</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2068722937002406</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1927278061697827</v>
+        <v>0.1931519392303669</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2219116538934736</v>
+        <v>0.2215100795423177</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>810</v>
@@ -8451,19 +8451,19 @@
         <v>498256</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>462600</v>
+        <v>465277</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>531142</v>
+        <v>534011</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.1342049985451358</v>
+        <v>0.1342049985451357</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1246009975623118</v>
+        <v>0.1253221451105241</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1430628864498733</v>
+        <v>0.1438357090782774</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1570</v>
@@ -8472,19 +8472,19 @@
         <v>1225438</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1161589</v>
+        <v>1164512</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1288909</v>
+        <v>1286841</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1695457099076312</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1607119422976235</v>
+        <v>0.1611163096740754</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1783273212496557</v>
+        <v>0.1780411820269103</v>
       </c>
     </row>
     <row r="55">
@@ -8501,19 +8501,19 @@
         <v>51905</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>38582</v>
+        <v>37732</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>65381</v>
+        <v>65296</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01476626111935018</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.01097589013605416</v>
+        <v>0.01073430158901273</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.01859988316991398</v>
+        <v>0.01857575807470004</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>70</v>
@@ -8522,19 +8522,19 @@
         <v>43723</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>33152</v>
+        <v>33382</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>55343</v>
+        <v>54725</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01177663866435037</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.008929443587258985</v>
+        <v>0.008991436173104455</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.01490668617616126</v>
+        <v>0.01474020577870284</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>132</v>
@@ -8543,19 +8543,19 @@
         <v>95628</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>80500</v>
+        <v>79444</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>113225</v>
+        <v>115526</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01323059926711489</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01113758780462164</v>
+        <v>0.01099145098509039</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.0156652245333551</v>
+        <v>0.0159835963675026</v>
       </c>
     </row>
     <row r="56">
@@ -8572,19 +8572,19 @@
         <v>110932</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>92105</v>
+        <v>92783</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>130138</v>
+        <v>133335</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.03155856568596064</v>
+        <v>0.03155856568596065</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02620246462987462</v>
+        <v>0.02639537164569443</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03702234537787837</v>
+        <v>0.03793176024972227</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>140</v>
@@ -8593,19 +8593,19 @@
         <v>80328</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>66165</v>
+        <v>68101</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>96297</v>
+        <v>95201</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.0216364001911455</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01782143500862895</v>
+        <v>0.01834288376306894</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02593765013618625</v>
+        <v>0.02564222262717986</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>270</v>
@@ -8614,19 +8614,19 @@
         <v>191261</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>168880</v>
+        <v>169045</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>219318</v>
+        <v>218770</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.02646190506365678</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02336547821182043</v>
+        <v>0.02338820058751319</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.03034381814959683</v>
+        <v>0.03026792078750733</v>
       </c>
     </row>
     <row r="57">
